--- a/Excels/PZ品质表.xlsx
+++ b/Excels/PZ品质表.xlsx
@@ -19,7 +19,7 @@
     <t>#</t>
   </si>
   <si>
-    <t>#name quality</t>
+    <t>#name CfgQuality</t>
   </si>
   <si>
     <t>#index unique id</t>
@@ -34,7 +34,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>icon_path</t>
+    <t>iconPath</t>
   </si>
   <si>
     <t>名字</t>
@@ -66,10 +66,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -92,7 +92,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -107,6 +107,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -115,8 +182,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,43 +199,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,7 +207,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,54 +221,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,13 +256,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,156 +430,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -431,12 +437,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,9 +467,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,10 +493,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -511,30 +520,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,156 +547,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1077,10 +1077,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1178,7 +1178,6 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" ht="13.5"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excels/PZ品质表.xlsx
+++ b/Excels/PZ品质表.xlsx
@@ -13,34 +13,89 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>右手边的没填的话，统一用这一列的内容</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>#</t>
   </si>
   <si>
-    <t>#name CfgQuality</t>
-  </si>
-  <si>
-    <t>#index unique id</t>
-  </si>
-  <si>
-    <t>string</t>
+    <t>defualt</t>
+  </si>
+  <si>
+    <t>lua</t>
+  </si>
+  <si>
+    <t>cs</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>isOutput</t>
+  </si>
+  <si>
+    <t>tableName</t>
+  </si>
+  <si>
+    <t>CfgQuality</t>
+  </si>
+  <si>
+    <t>outputDir</t>
+  </si>
+  <si>
+    <t>uniqueIndexesList</t>
+  </si>
+  <si>
+    <t>multiplyIndexesList</t>
+  </si>
+  <si>
+    <t>headCommentRowIndex</t>
+  </si>
+  <si>
+    <t>headRowIndex</t>
+  </si>
+  <si>
+    <t>dataStartRowIndex</t>
   </si>
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>iconPath</t>
-  </si>
-  <si>
     <t>名字</t>
   </si>
   <si>
     <t>图片路径</t>
+  </si>
+  <si>
+    <t>id(string)</t>
+  </si>
+  <si>
+    <t>name(string)</t>
+  </si>
+  <si>
+    <t>iconPath(string)</t>
   </si>
   <si>
     <t>白色品质</t>
@@ -67,11 +122,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,68 +147,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,37 +162,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -205,9 +178,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,6 +202,81 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -233,6 +288,11 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="35">
@@ -244,13 +304,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399670400097659"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799676503799554"/>
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,13 +412,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,163 +484,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,17 +525,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -487,24 +536,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,8 +558,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,6 +579,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -562,6 +604,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -573,10 +633,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,137 +645,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -723,6 +783,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1077,21 +1140,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="71.5" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1101,86 +1164,225 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" ht="13.5" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3">
+        <v>18</v>
+      </c>
+      <c r="E8" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" ht="13.5" spans="1:3">
+      <c r="A16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" ht="13.5" spans="1:3">
+      <c r="A17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" ht="13.5" spans="1:3">
+      <c r="A18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" ht="13.5" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="C21" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C22" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" ht="13.5" spans="1:3">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
+      <c r="C23" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>